--- a/biology/Botanique/Parc_Sainte-Beuve/Parc_Sainte-Beuve.xlsx
+++ b/biology/Botanique/Parc_Sainte-Beuve/Parc_Sainte-Beuve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Sainte-Beuve est un parc de la ville de Liège (Belgique) situé dans le quartier administratif de Burenville, sur les hauteurs de Saint-Gilles.
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé entre quatre voies : le boulevard Sainte-Beuve, le boulevard Carton de Wiart, la rue du Calvaire et la rue du Snapeux. L'accès principal au parc se situe au boulevard Sainte-Beuve. L'altitude au centre du parc y est de 150 m
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce parc se présente comme une pelouse arborée parcourue par quelques chemins pourvus de bancs espacés.
 </t>
@@ -574,7 +590,9 @@
           <t>Odonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc, comme le boulevard voisin, rend hommage à l'écrivain français Charles-Augustin Sainte-Beuve qui séjourna à Liège en 1848 et 1849 au no 25 de la rue des Anges.
 </t>
